--- a/biology/Médecine/Huffmanela/Huffmanela.xlsx
+++ b/biology/Médecine/Huffmanela/Huffmanela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Huffmanela Moravec, 1987 [1] est un genre de nématodes parasites de poissons.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Huffmanela Moravec, 1987  est un genre de nématodes parasites de poissons.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme chez les autres nématodes, les espèces d’Huffmanela ont un corps allongé et vermiforme, qui est dans ce cas particulièrement fin et petit. Le mâle est plus petit que la femelle. Le stichosome est composé d'un seul rang de stichocytes. Les œufs mûrs contiennent des larves et ont des parois pigmentées, de jaune à noir, souvent très épaisses, comprenant trois couches[2], et des bouchons polaires[3]. 
-La structure de la coque de l'oeuf des Huffmanela a été révisée dans le cadre d'une nouvelle interprétation des oeufs de nématodes en 2023 [4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme chez les autres nématodes, les espèces d’Huffmanela ont un corps allongé et vermiforme, qui est dans ce cas particulièrement fin et petit. Le mâle est plus petit que la femelle. Le stichosome est composé d'un seul rang de stichocytes. Les œufs mûrs contiennent des larves et ont des parois pigmentées, de jaune à noir, souvent très épaisses, comprenant trois couches, et des bouchons polaires. 
+La structure de la coque de l'oeuf des Huffmanela a été révisée dans le cadre d'une nouvelle interprétation des oeufs de nématodes en 2023 .
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les nématodes du genre Huffmanela sont tous parasites de poissons[1]. Ils infectent différents tissus (peau, muqueuse, musculature, paroi de la vessie gazeuse, et même l'intérieur des os
-[5]) des élasmobranches (requins) et poissons osseux. 
-Leur cycle biologique n'est pas connu[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nématodes du genre Huffmanela sont tous parasites de poissons. Ils infectent différents tissus (peau, muqueuse, musculature, paroi de la vessie gazeuse, et même l'intérieur des os
+) des élasmobranches (requins) et poissons osseux. 
+Leur cycle biologique n'est pas connu. 
 Les femelles déposent des œufs peu mûrs dans les tissus de l'hôte et les œufs continuent à se développer après avoir été pondus.
-Les œufs se présentent généralement sous la forme de masses dans les tissus de l'hôte, produisant des taches noires bien visibles dans les chairs ou d'autres organes; ces taches noires peuvent constituer un problème commercial[3].
+Les œufs se présentent généralement sous la forme de masses dans les tissus de l'hôte, produisant des taches noires bien visibles dans les chairs ou d'autres organes; ces taches noires peuvent constituer un problème commercial.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En zoologie, les nouvelles espèces sont généralement décrites à partir de spécimens adultes. Toutefois, dans les cas des espèces d’Huffmanela, il arrive souvent que les œufs soient le seul stade connu. Pour cette raison, plusieurs espèces d’Huffmanela ont été décrites seulement à partir des œufs[3],[5]. Ceci est exceptionnel mais parfaitement valide du point de vue du Code international de nomenclature zoologique, et les œufs sont considérés comme syntypes de la nouvelle espèce[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En zoologie, les nouvelles espèces sont généralement décrites à partir de spécimens adultes. Toutefois, dans les cas des espèces d’Huffmanela, il arrive souvent que les œufs soient le seul stade connu. Pour cette raison, plusieurs espèces d’Huffmanela ont été décrites seulement à partir des œufs,. Ceci est exceptionnel mais parfaitement valide du point de vue du Code international de nomenclature zoologique, et les œufs sont considérés comme syntypes de la nouvelle espèce.
 </t>
         </is>
       </c>
@@ -609,16 +627,17 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Moravec (2001)[3], Huffmanela est le seul genre de la sous-famille Huffmanelinae Moravec, 2001.
-L'espèce-type du genre Huffmanela est Huffmanela carcharini (McCallum, 1925) Moravec, 1987[1], une espèce originellement décrite dans le genre Capillaria sous le nom Capillaria carcharhini MacCallum, 1925
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Moravec (2001), Huffmanela est le seul genre de la sous-famille Huffmanelinae Moravec, 2001.
+L'espèce-type du genre Huffmanela est Huffmanela carcharini (McCallum, 1925) Moravec, 1987, une espèce originellement décrite dans le genre Capillaria sous le nom Capillaria carcharhini MacCallum, 1925
 et Capillaria spinosa MacCallum, 1926 par MacCallum.
 Vingt espèces d’Huffmanela ont été décrites avec un nom latin 
-[7],[8],[9],[10],[11],[12],[13],[14],[15],[16]
 Parmi ces vingt espèces, les formes adultes sont connues seulement pour 5 espèces (Tableau ci-dessous); toutes les autres ont été décrites seulement à partir des œufs.
-Les hôtes incluent des espèces et des familles de poissons variées, généralement marins, avec une seule exception, H. huffmani[17], chez un hôte en eau douce.
-En plus de ces espèces décrites formellement, une demi-douzaine de cas d’Huffmanela spp., donc des espèces non nommées, ont été mentionnées de divers poissons hôtes[18],[19],[20],[21],[6],[22],[23].
+Les hôtes incluent des espèces et des familles de poissons variées, généralement marins, avec une seule exception, H. huffmani, chez un hôte en eau douce.
+En plus de ces espèces décrites formellement, une demi-douzaine de cas d’Huffmanela spp., donc des espèces non nommées, ont été mentionnées de divers poissons hôtes.
 Espèces d’Huffmanela décrites, description de leur forme adulte, espèce et famille du poisson hôte
 </t>
         </is>
@@ -648,9 +667,11 @@
           <t>Intérêt en médecine</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toutes les espèces d’Huffmanela connues sont strictement parasites de poissons, et aucune ne peut infester l'espèce humaine. Toutefois, on trouve dans la littérature des mentions de prétendue parasitoses (« spurious parasitosis ») où des œufs d’Huffmanela ont été trouvés dans des examens coprologiques[19]. Les infestations de poissons pouvant être très lourdes, avec des millions d'œufs dans un seul poisson[7], on comprend que la consommation d'un poisson parasité, même bien cuit, puisse conduire à trouver de très nombreux œufs d’Huffmanela dans les selles. À cause de leurs bouchons polaires, les œufs des Nématodes Trichocephalida appartenant aux genres Anatrichosoma, Capillaria ou Trichuris peuvent parfois être confondus[24].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les espèces d’Huffmanela connues sont strictement parasites de poissons, et aucune ne peut infester l'espèce humaine. Toutefois, on trouve dans la littérature des mentions de prétendue parasitoses (« spurious parasitosis ») où des œufs d’Huffmanela ont été trouvés dans des examens coprologiques. Les infestations de poissons pouvant être très lourdes, avec des millions d'œufs dans un seul poisson, on comprend que la consommation d'un poisson parasité, même bien cuit, puisse conduire à trouver de très nombreux œufs d’Huffmanela dans les selles. À cause de leurs bouchons polaires, les œufs des Nématodes Trichocephalida appartenant aux genres Anatrichosoma, Capillaria ou Trichuris peuvent parfois être confondus.
 </t>
         </is>
       </c>
